--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-816994.8029008966</v>
+        <v>-791401.6496606345</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306645</v>
+        <v>16789668.10294316</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9687475.464030217</v>
+        <v>9726942.406465353</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>322.9639268876599</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>291.4920797729008</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>232.9850985903413</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95.17063835559559</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>209.9048653462156</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>5.64492333244486</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>52.51170991984834</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>180.2960919911534</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>231.1353383519995</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>119.0438239259306</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>16.92574903168972</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1354,7 +1354,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>394.5071166968776</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>176.0407216886758</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.5723097241247</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225714</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1616,13 +1616,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.3431845617055</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>64.90507698037622</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800226</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>145.8999204549469</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>206.826181563487</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>137.2470510215437</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170448</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225717</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>18.05677735225816</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998659</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>413.4103278430669</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>425.1348011514191</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>422.9244400403081</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>420.8107504562959</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>414.9625083578925</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>388.7576061259769</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>277.6126060742241</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>74.18910814100953</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>209.2403079186999</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>248.0038327191614</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>350.3645336285199</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>392.1806531060852</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>406.3247918494906</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>395.5770155263513</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>181.2741855948054</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>162.2098474646155</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>159.4341767747783</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>166.3137365608695</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>129.4863861523662</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>129.8769056295374</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432328</v>
+        <v>79.14710279607958</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.96793274293448</v>
+        <v>12.57739614469</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>149.0227080779915</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>234.7944050203375</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>267.0224238024339</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>275.459706111282</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>260.6798934325795</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>234.3115901829298</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>216.519227042041</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293448</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742933988</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293448</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230546</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0372869678147</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2410.023473199882</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1696.444565564141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.1886646636541</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>465.1886646636541</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>299.3106718651768</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>1302.603577953827</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1024.170577206932</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>737.2150690773626</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>465.1886646636541</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>465.1886646636541</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>465.1886646636541</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>552.7406073489124</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6385385727397</v>
+        <v>944.2701990826092</v>
       </c>
       <c r="D5" t="n">
-        <v>486.7691577875882</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1072.260748364489</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>1057.158688984204</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y5" t="n">
-        <v>648.8725652838574</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1567.017802830512</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1532.240118618369</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1532.240118618369</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.240118618369</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W7" t="n">
-        <v>1532.240118618369</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.896454541561</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C8" t="n">
-        <v>128.7943857653883</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D8" t="n">
-        <v>96.92500498023688</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>67.19066417893612</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>43.3636386285479</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>43.3636386285479</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>43.3636386285479</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>43.3636386285479</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.6183260814658</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6183260814658</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>478.6183260814658</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>478.6183260814658</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>478.6183260814658</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>925.777810617778</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1462.402838646058</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>1999.027866674339</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427395</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2084.530057611232</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1864.462830484271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1605.240527801288</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1242.623577735114</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>837.7681231461474</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>418.6256597254581</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.1556209860647</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198407</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.078922456483</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030362</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.86821892999</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461516</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233543</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.3636386285479</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.4273117890055</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.9856367552178</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>930.6106647834981</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1052.805593984737</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>1052.805593984737</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1052.805593984737</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.805593984737</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984737</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886341</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.192499681503</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203831</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.8392846996038</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>904.2283817190462</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>904.2283817190462</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>783.9820949251769</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>614.2240911759142</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>437.5170371376704</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>271.9257621634981</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>132.0235878538726</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.3636386285479</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.3636386285479</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>81.05323612475362</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>499.2631178927147</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7469850736277</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1401.005788231272</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.675037457054</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.181931427395</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427395</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2146.764110132767</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1987.522741430764</v>
+        <v>2652.964110237802</v>
       </c>
       <c r="T10" t="n">
-        <v>1741.643295009219</v>
+        <v>2407.084663816257</v>
       </c>
       <c r="U10" t="n">
-        <v>1463.210294262324</v>
+        <v>2128.651663069363</v>
       </c>
       <c r="V10" t="n">
-        <v>1176.254786132755</v>
+        <v>1841.696154939793</v>
       </c>
       <c r="W10" t="n">
-        <v>904.2283817190462</v>
+        <v>1569.669750526085</v>
       </c>
       <c r="X10" t="n">
-        <v>904.2283817190462</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y10" t="n">
-        <v>904.2283817190462</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2095.362783672923</v>
+        <v>2060.162497046432</v>
       </c>
       <c r="C11" t="n">
-        <v>1657.220310856347</v>
+        <v>2060.162497046432</v>
       </c>
       <c r="D11" t="n">
-        <v>1221.310526030791</v>
+        <v>1624.252712220877</v>
       </c>
       <c r="E11" t="n">
-        <v>787.5357811890863</v>
+        <v>1190.477967379172</v>
       </c>
       <c r="F11" t="n">
-        <v>359.668351598294</v>
+        <v>762.6105377883797</v>
       </c>
       <c r="G11" t="n">
-        <v>359.668351598294</v>
+        <v>361.2127064116436</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53819704151019</v>
+        <v>72.08255185485989</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151019</v>
+        <v>71.66576248199989</v>
       </c>
       <c r="J11" t="n">
-        <v>505.7928844944281</v>
+        <v>71.66576248199989</v>
       </c>
       <c r="K11" t="n">
-        <v>739.025222156387</v>
+        <v>906.0160544401779</v>
       </c>
       <c r="L11" t="n">
-        <v>1611.935410545075</v>
+        <v>1321.615652593255</v>
       </c>
       <c r="M11" t="n">
-        <v>2484.845598933764</v>
+        <v>1321.615652593255</v>
       </c>
       <c r="N11" t="n">
-        <v>3357.755787322452</v>
+        <v>1321.615652593255</v>
       </c>
       <c r="O11" t="n">
-        <v>3357.755787322452</v>
+        <v>2208.479463308003</v>
       </c>
       <c r="P11" t="n">
-        <v>3357.755787322452</v>
+        <v>3036.7893381414</v>
       </c>
       <c r="Q11" t="n">
-        <v>3357.755787322452</v>
+        <v>3583.288124099995</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075509</v>
+        <v>3583.288124099995</v>
       </c>
       <c r="S11" t="n">
-        <v>3526.909852075509</v>
+        <v>3499.636250283831</v>
       </c>
       <c r="T11" t="n">
-        <v>3349.090941278867</v>
+        <v>3499.636250283831</v>
       </c>
       <c r="U11" t="n">
-        <v>3349.090941278867</v>
+        <v>3240.413947600849</v>
       </c>
       <c r="V11" t="n">
-        <v>3349.090941278867</v>
+        <v>2877.796997534675</v>
       </c>
       <c r="W11" t="n">
-        <v>3349.090941278867</v>
+        <v>2877.796997534675</v>
       </c>
       <c r="X11" t="n">
-        <v>2929.948477858178</v>
+        <v>2458.654534113986</v>
       </c>
       <c r="Y11" t="n">
-        <v>2521.662354157831</v>
+        <v>2458.654534113986</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>577.8375074732927</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>471.381046309935</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159985</v>
+        <v>376.2907574564882</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429522</v>
+        <v>282.1703427834419</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>198.7865043996035</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252977</v>
+        <v>113.4014146657874</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151019</v>
+        <v>71.66576248199989</v>
       </c>
       <c r="I12" t="n">
-        <v>70.57439675731419</v>
+        <v>97.72943564245749</v>
       </c>
       <c r="J12" t="n">
-        <v>395.1327217235265</v>
+        <v>422.2877606086698</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086698</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086698</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086698</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086698</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086698</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1242.010927087868</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1617.732745866469</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1734.905523960809</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1671.450086409192</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1541.271442739793</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1364.934895739762</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1165.817377801761</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>980.4946235349551</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>825.6271877738351</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>699.1414085530558</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.0342341184414</v>
+        <v>1010.821748784256</v>
       </c>
       <c r="C13" t="n">
-        <v>748.4725226016664</v>
+        <v>838.2600372674806</v>
       </c>
       <c r="D13" t="n">
-        <v>582.5945298031891</v>
+        <v>672.3820444690034</v>
       </c>
       <c r="E13" t="n">
-        <v>412.8365260539263</v>
+        <v>502.6240407197406</v>
       </c>
       <c r="F13" t="n">
-        <v>236.1294720156825</v>
+        <v>325.9169866814968</v>
       </c>
       <c r="G13" t="n">
-        <v>70.53819704151019</v>
+        <v>160.3257117073244</v>
       </c>
       <c r="H13" t="n">
-        <v>70.53819704151019</v>
+        <v>160.3257117073244</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151019</v>
+        <v>71.66576248199989</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822062001</v>
+        <v>158.2454476466898</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773357</v>
+        <v>433.0039022178253</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452967</v>
+        <v>851.2137839857864</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1310.697651166699</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1752.956454324344</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109636</v>
+        <v>2172.625703550125</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079978</v>
+        <v>2520.132597520467</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2688.3253723848</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2672.595766602856</v>
       </c>
       <c r="S13" t="n">
-        <v>2668.958637901625</v>
+        <v>2513.354397900852</v>
       </c>
       <c r="T13" t="n">
-        <v>2423.079191480081</v>
+        <v>2267.474951479307</v>
       </c>
       <c r="U13" t="n">
-        <v>2144.646190733186</v>
+        <v>1989.041950732413</v>
       </c>
       <c r="V13" t="n">
-        <v>1857.690682603616</v>
+        <v>1702.086442602843</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.664278189908</v>
+        <v>1430.060038189135</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.27252352332</v>
+        <v>1430.060038189135</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.852852837429</v>
+        <v>1202.640367503243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>4729.704604581733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4943.887948785926</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4943.887948785926</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5346,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883927</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716175</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731402</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238775</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8499155856337</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707797</v>
+        <v>307.7236983989669</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707797</v>
+        <v>167.8215240893415</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093272</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.57329640738</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5519,25 +5519,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5546,16 +5546,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136697</v>
@@ -5589,31 +5589,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1162.814665109382</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>990.2529535926071</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
         <v>842.8792965674086</v>
@@ -5716,7 +5716,7 @@
         <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>388.1086717343214</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883916</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716165</v>
+        <v>811.754677688392</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238764</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856326</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831959</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6181,7 +6181,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903958</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736207</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751434</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258808</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287637</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134646</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134646</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6473,40 +6473,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.500009313464</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2473.704930551191</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2044.27583847905</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1617.07943439793</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1192.018070300662</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>772.8640214543057</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>380.1795708220054</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>99.76279700965785</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>99.76279700965785</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>99.76279700965785</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>99.76279700965785</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>896.871490432192</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2053.919325642743</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>3179.65030907919</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>4159.829975649496</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4988.139850482892</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4988.139850482892</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4988.139850482892</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4913.201357411165</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4701.84751102864</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4451.338589090094</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4097.435019768356</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3701.292945923826</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3290.863863247572</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2891.291120291662</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>605.9345420009506</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>499.4780808375929</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>404.3877919841462</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>310.2673773110999</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>226.8835389272615</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>141.4984491934454</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>99.76279700965785</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>125.8264701701154</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>450.3847951363277</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>450.3847951363277</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>450.3847951363277</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>450.3847951363277</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>450.3847951363277</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>450.3847951363277</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1105.090841762051</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1645.829780394127</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1763.002558488467</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1699.54712093685</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1569.368477267451</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1393.03193026742</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.914412329419</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1008.591658062613</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>853.724222301493</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>727.2384430807138</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>934.5791155735428</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936667</v>
+        <v>770.730784801204</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080655</v>
+        <v>770.730784801204</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716789</v>
+        <v>609.6861617963774</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463112</v>
+        <v>441.6924885025699</v>
       </c>
       <c r="G37" t="n">
-        <v>293.329412385015</v>
+        <v>310.8981590557356</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882657</v>
+        <v>179.7093654905463</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>99.76279700965785</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>194.8824666419696</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823624</v>
+        <v>478.1809056807271</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885683</v>
+        <v>904.9307719163101</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301956</v>
+        <v>1372.954623564845</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.22416169496</v>
+        <v>1823.753411190112</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156102</v>
+        <v>2251.962644883515</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361803</v>
+        <v>2608.009523321478</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2784.742282653433</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2772.037842103241</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2621.509854145674</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2384.343788468565</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2114.624168466106</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1836.382041080973</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1573.069017411701</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976692</v>
+        <v>1336.390643489549</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1117.684353548094</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>540.3167323207291</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573589</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.424533784139</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220586</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790892</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790892</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387605</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936668</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080669</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716802</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463125</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850163</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882657</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856843</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
@@ -7354,28 +7354,28 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206712</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390332</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961503</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835866</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197266</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581899</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,46 +7415,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2492.90266652336</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3473.082333093667</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4301.392207927063</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4847.890993885658</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882666</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,34 +7585,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.47362528195</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835864</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197261</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581786</v>
+        <v>444.7825334645009</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>1279.132825422679</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.976961886855</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>3132.707945323302</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>4112.887611893609</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790893</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1220.067526522551</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463118</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>451.676247006376</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568488</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568488</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568488</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153925</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568488</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>38.0703005012179</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>235.5882198605647</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188773</v>
+        <v>419.7975738919968</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188772</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188772</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>895.8220310249985</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652536</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,19 +8933,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>216.346812327467</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>446.2295987639958</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9237,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>288.7351832965068</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>805.1602963863982</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>30.75170697498379</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>773.1793655528127</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>446.229598763996</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>27.52945808318111</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800263</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>41.82583316701596</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>5.631333357557134</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>22.86827275269518</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168618</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.31929241554568</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168659</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>18.31929241554579</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>26.97216184894887</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.060423711766</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081325</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627252</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473427</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>155.5929659335007</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>25.82272913507263</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>827610.1764104596</v>
+        <v>842575.9788796604</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>827610.1764104596</v>
+        <v>842575.9788796604</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>834855.560629362</v>
+        <v>842575.9788796604</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658322.8655040566</v>
+        <v>665411.338116163</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857748.1756808548</v>
+        <v>857748.1756808549</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857748.1756808548</v>
+        <v>857748.1756808551</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857748.1756808549</v>
+        <v>857748.1756808553</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857748.1756808549</v>
+        <v>857748.1756808548</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>868676.4434355539</v>
+        <v>863552.1524421431</v>
       </c>
     </row>
     <row r="14">
@@ -26320,13 +26320,13 @@
         <v>147440.5129698623</v>
       </c>
       <c r="E2" t="n">
-        <v>111200.0715271666</v>
+        <v>112397.4151146191</v>
       </c>
       <c r="F2" t="n">
+        <v>144885.8356377718</v>
+      </c>
+      <c r="G2" t="n">
         <v>144885.8356377719</v>
-      </c>
-      <c r="G2" t="n">
-        <v>144885.8356377718</v>
       </c>
       <c r="H2" t="n">
         <v>144885.8356377719</v>
@@ -26338,19 +26338,19 @@
         <v>144885.8356377719</v>
       </c>
       <c r="K2" t="n">
-        <v>144885.8356377718</v>
+        <v>144885.8356377719</v>
       </c>
       <c r="L2" t="n">
         <v>144885.8356377719</v>
       </c>
       <c r="M2" t="n">
-        <v>147440.5129698624</v>
+        <v>146243.1693824097</v>
       </c>
       <c r="N2" t="n">
-        <v>147440.5129698625</v>
+        <v>147440.5129698623</v>
       </c>
       <c r="O2" t="n">
-        <v>147440.5129698623</v>
+        <v>147440.5129698622</v>
       </c>
       <c r="P2" t="n">
         <v>147440.5129698623</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835294</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.5662728181</v>
+        <v>68167.39502082134</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238708</v>
+        <v>109578.5657313488</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.370426102</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625516039</v>
+        <v>56014.44176108544</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769093</v>
+        <v>93033.54654134219</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>186257.9324401104</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>62504.97940420081</v>
+        <v>63177.99998094736</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904277</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904277</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
+        <v>88292.58774374906</v>
+      </c>
+      <c r="N4" t="n">
+        <v>94325.77438500366</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94325.77438500366</v>
+      </c>
+      <c r="P4" t="n">
         <v>94325.77438500365</v>
-      </c>
-      <c r="N4" t="n">
-        <v>94325.77438500362</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94325.77438500359</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94325.77438500363</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.9653576964</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154774</v>
+        <v>54465.97948631991</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>76544.92568108592</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260136.5486689367</v>
+        <v>-315734.7984354987</v>
       </c>
       <c r="C6" t="n">
-        <v>-117945.2480092268</v>
+        <v>-92035.09985145381</v>
       </c>
       <c r="D6" t="n">
-        <v>-141977.9509462974</v>
+        <v>-92035.09985145378</v>
       </c>
       <c r="E6" t="n">
-        <v>-106335.5039014</v>
+        <v>-73732.53299033537</v>
       </c>
       <c r="F6" t="n">
-        <v>-127889.0003609342</v>
+        <v>-123873.7645077949</v>
       </c>
       <c r="G6" t="n">
-        <v>-14271.97443706347</v>
+        <v>-14295.19877644613</v>
       </c>
       <c r="H6" t="n">
-        <v>-14271.9744370634</v>
+        <v>-14295.19877644614</v>
       </c>
       <c r="I6" t="n">
-        <v>-14271.97443706346</v>
+        <v>-14295.19877644611</v>
       </c>
       <c r="J6" t="n">
-        <v>-125286.4397820537</v>
+        <v>-188946.5474941522</v>
       </c>
       <c r="K6" t="n">
-        <v>-14271.9744370635</v>
+        <v>-14295.19877644608</v>
       </c>
       <c r="L6" t="n">
-        <v>-44073.34486316546</v>
+        <v>-14295.19877644611</v>
       </c>
       <c r="M6" t="n">
-        <v>-105417.0823963913</v>
+        <v>-74619.6707452148</v>
       </c>
       <c r="N6" t="n">
-        <v>-119522.5241189218</v>
+        <v>-115434.4226825733</v>
       </c>
       <c r="O6" t="n">
-        <v>-22400.87614123098</v>
+        <v>-22400.87614123116</v>
       </c>
       <c r="P6" t="n">
-        <v>-22400.87614123104</v>
+        <v>-22400.87614123103</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.0454828568488</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188773</v>
+        <v>895.8220310249986</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1247.034962620723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.609463401755542</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367445</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620285</v>
+        <v>228.3068244171417</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658683</v>
+        <v>382.4384723597467</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367445</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250064</v>
+        <v>197.0812836531194</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658679</v>
+        <v>354.9873056867465</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367445</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620285</v>
+        <v>228.3068244171417</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658683</v>
+        <v>382.4384723597467</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106.4730705056278</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>112.7111826904423</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>10.43555336698802</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>326.8659364244631</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>223.8561827421954</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.7757286248844</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>223.1369608195774</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>253.4649560972575</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>173.0679241113436</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>45.1753889445619</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936991839</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791302636</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>451.676247006376</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568488</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568488</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568488</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153925</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568488</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>38.0703005012179</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>235.5882198605647</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188773</v>
+        <v>419.7975738919968</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188772</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188772</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>895.8220310249985</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652536</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>216.346812327467</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>446.2295987639958</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>288.7351832965068</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>805.1602963863982</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>96.0804743760725</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348433</v>
+        <v>286.1600394330884</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467885</v>
+        <v>431.0604709450333</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>472.7513653015505</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>455.3523107325925</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>432.534579488286</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>359.6433115534987</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>178.5179387191461</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348442</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
         <v>438.6699343467889</v>
@@ -37713,10 +37713,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.1274021209015</v>
@@ -37783,25 +37783,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>30.75170697498379</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>773.1793655528127</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>446.229598763996</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
